--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d093b5e2b43e22d2/Documents/Cointoss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C65E3B33-A02F-4E20-A298-9175CFC23F33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{C65E3B33-A02F-4E20-A298-9175CFC23F33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C0790A3-3B8D-4D09-863C-059E9EE4EAD7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CE238250-8416-4CEF-841F-641579D6744F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="2">
   <si>
     <t>T</t>
   </si>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8068CFE5-97F9-47E1-B2A9-96BD51F14FB9}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,6 +1422,495 @@
         <v>0</v>
       </c>
     </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <f>COUNTIF(A1:A300,"H")</f>
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
